--- a/src/kraken_files/excel_files/BATUSD.xlsx
+++ b/src/kraken_files/excel_files/BATUSD.xlsx
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,20 +622,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OIY2MV-TSXFI-XQPGBC</t>
+          <t>OFYZZ4-SZHXP-4HF2RO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.98043</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OFYZZ4-SZHXP-4HF2RO</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
         <v>0.97035</v>
       </c>
     </row>
@@ -650,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,6 +662,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OTNVIK-JQBEV-F5KF2R</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
